--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,52 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="87">
-  <si>
-    <t>REQ ID</t>
-  </si>
-  <si>
-    <t>F/NF</t>
-  </si>
-  <si>
-    <t>DEALER/PLAYER/GENERAL</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>TEST CASE / STEP</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>CLASS/METHOD</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>Poker++ will have a graphical user interface. The GUI must be done using gtk</t>
-  </si>
-  <si>
-    <t>class</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="88">
+  <si>
+    <t xml:space="preserve">REQ ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F/NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEALER/PLAYER/GENERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST CASE / STEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASS/METHOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poker++ will have a graphical user interface. The GUI must be done using gtk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
   </si>
   <si>
     <t xml:space="preserve">The system shall use a client server model where the dealer is the server and the players/spectators are clients </t>
@@ -55,251 +64,285 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>The clients and server should communicate using  a text based, JSON encoded interface</t>
-  </si>
-  <si>
-    <t>Poker++ will be written in C++11 and compiled using g++</t>
-  </si>
-  <si>
-    <t>requirements doc</t>
-  </si>
-  <si>
-    <t>The system shall use the JSON and Boost ASIO libraries</t>
-  </si>
-  <si>
-    <t>The system shall allow there to be 1 dealer and 1-5 players per game. Players can only join before the game has started</t>
-  </si>
-  <si>
-    <t>If more than 5 players attempt to join, the system shall allow the remaining ones to be spectators. Spectators are allowed to join at any time</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>Each player should be assigned a unique ID using Boost UUID</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>The system should have a pop up window that allows the player to enter their name when they join the game</t>
-  </si>
-  <si>
-    <t>Mainwin</t>
-  </si>
-  <si>
-    <t>Players and spectators should recieve all transmissions from the dealer so they know the state of the game at all times</t>
-  </si>
-  <si>
-    <t>Dealer::deliverMessage()</t>
-  </si>
-  <si>
-    <t>They player application should serve as only an interface to the user. Individual betting and exchanging cards are the only decisions allowed by the player</t>
-  </si>
-  <si>
-    <t>dealer</t>
-  </si>
-  <si>
-    <t>All decisions about winning, losing, and game play are made by the dealer application</t>
-  </si>
-  <si>
-    <t>Dealer</t>
-  </si>
-  <si>
-    <t>Most of the error checking should be done in th dealer application. The player applicaiton should contain very limited error checking</t>
-  </si>
-  <si>
-    <t>The system shall generate a deck of cards that consists of 52 cards</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>Deck</t>
-  </si>
-  <si>
-    <t>Each card shall be assigned a suit (hearts, clubs, spades, or diamonds) and either a numerical value from 2 to 10 or a face value (J,Q,K,A)</t>
-  </si>
-  <si>
-    <t>Card::_suit/_num</t>
-  </si>
-  <si>
-    <t>The A card can be used as either high or low, meaning the value can be a 1 or 11</t>
-  </si>
-  <si>
-    <t>The system shall generate 3 types of poker chips, each color with a value of either 1,5, or 25</t>
-  </si>
-  <si>
-    <t>Chip::_color/_value</t>
-  </si>
-  <si>
-    <t>Each player should start each game with $100 worth of chips, specifically 25 ones, 5 fives, and 2 twenty-fives</t>
-  </si>
-  <si>
-    <t>Stack</t>
+    <t xml:space="preserve">The clients and server should communicate using  a text based, JSON encoded interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poker++ will be written in C++11 and compiled using g++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requirements doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall use the JSON and Boost ASIO libraries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall allow there to be 1 dealer and 1-5 players per game. Players can only join before the game has started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If more than 5 players attempt to join, the system shall allow the remaining ones to be spectators. Spectators are allowed to join at any time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each player should be assigned a unique ID using Boost UUID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player::generator()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should have a pop up window that allows the player to enter their name when they join the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainwin::Mainwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players and spectators should recieve all transmissions from the dealer so they know the state of the game at all times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer::deliverMessage()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They player application should serve as only an interface to the user. Individual betting and exchanging cards are the only decisions allowed by the player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dealer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All decisions about winning, losing, and game play are made by the dealer application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of the error checking should be done in th dealer application. The player applicaiton should contain very limited error checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall generate a deck of cards that consists of 52 cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deck::Deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each card shall be assigned a suit (hearts, clubs, spades, or diamonds) and either a numerical value from 2 to 10 or a face value (J,Q,K,A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card::_suit/_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The A card can be used as either high or low, meaning the value can be a 1 or 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall generate 3 types of poker chips, each color with a value of either 1,5, or 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chip::_color/_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each player should start each game with $100 worth of chips, specifically 25 ones, 5 fives, and 2 twenty-fives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack::adchips()</t>
   </si>
   <si>
     <t xml:space="preserve">The dealer should start each game by shuffling the deck of cards generated by the system </t>
   </si>
   <si>
-    <t>Dealer::shuffle()</t>
+    <t xml:space="preserve">Dealer::shuffle()</t>
   </si>
   <si>
     <t xml:space="preserve">The deck should be shuffled 3 times every game </t>
   </si>
   <si>
-    <t>For the first round, each player should ante 1 at a time from left to right</t>
-  </si>
-  <si>
-    <t>The ante shall be set to $1 at the beginning of the game</t>
-  </si>
-  <si>
-    <t>Pot</t>
-  </si>
-  <si>
-    <t>The ante establishes the pot (prize) for winning the game. The dealer shall keep track of the pot throughout the game</t>
-  </si>
-  <si>
-    <t>Once each player has anted, the dealer should deal each player 5 cards.</t>
-  </si>
-  <si>
-    <t>Dealer::dealCards()</t>
-  </si>
-  <si>
-    <t>The dealer should always deal the cards one at a time and from left to right</t>
-  </si>
-  <si>
-    <t>Once all cards have been dealt, each player should have 5 cards in their hand at all times during the game</t>
-  </si>
-  <si>
-    <t>infered</t>
-  </si>
-  <si>
-    <t>The system shall allow players to look at their own 5 cards, but not any others</t>
-  </si>
-  <si>
-    <t>After each player recieves their cards, a "betting round" should begin where they should choose to either check, bet, raise call, or fold</t>
-  </si>
-  <si>
-    <t>Player::move_j()</t>
+    <t xml:space="preserve">For the first round, each player should ante 1 at a time from left to right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainwin::on_ante_click()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ante shall be set to $1 at the beginning of the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ante establishes the pot (prize) for winning the game. The dealer shall keep track of the pot throughout the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once each player has anted, the dealer should deal each player 5 cards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer::dealCards()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dealer should always deal the cards one at a time and from left to right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once all cards have been dealt, each player should have 5 cards in their hand at all times during the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall allow players to look at their own 5 cards, but not any others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After each player recieves their cards, a "betting round" should begin where they should choose to either check, bet, raise call, or fold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player::move_j()</t>
   </si>
   <si>
     <t xml:space="preserve">The system shall only allow a player to check if no other player has bet this round </t>
   </si>
   <si>
-    <t>The system will define "check" as a player retaining their current hand and making no bet</t>
-  </si>
-  <si>
-    <t>The system will define "bet" as the first wager set at the table during the current round</t>
-  </si>
-  <si>
-    <t>The system will define "raise" as betting over the current bet amount. Every other player must match this new amount if they want to continue</t>
-  </si>
-  <si>
-    <t>The system will define "call" as matching the current bet amount</t>
-  </si>
-  <si>
-    <t>The system will define "fold" as discarding all cards and forfeiting the game</t>
-  </si>
-  <si>
-    <t>After the betting round completes, players shall be given the option to exhange 1-4 of their cards for new cards in the deck or stand pat</t>
-  </si>
-  <si>
-    <t>The system will define "stand pat" as exchanging 0 cards and keeping the original hand</t>
-  </si>
-  <si>
-    <t>After all players have had the chance to exchange cards, another betting round is played</t>
-  </si>
-  <si>
-    <t>Round</t>
-  </si>
-  <si>
-    <t>Once the 2nd betting round completes and the pot is satisfied, all of the players' cards are revealed</t>
-  </si>
-  <si>
-    <t>Dealer::revealHand()</t>
-  </si>
-  <si>
-    <t>The dealer will then determine which player has the highest valued hand and declare them the winner</t>
-  </si>
-  <si>
-    <t>Dealer::gameResult()</t>
-  </si>
-  <si>
-    <t>If two players have the same value for their hand, the dealer should determine which player has the highest card and declare them the winner</t>
+    <t xml:space="preserve">The system will define "check" as a player retaining their current hand and making no bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system will define "bet" as the first wager set at the table during the current round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system will define "raise" as betting over the current bet amount. Every other player must match this new amount if they want to continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system will define "call" as matching the current bet amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system will define "fold" as discarding all cards and forfeiting the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the betting round completes, players shall be given the option to exhange 1-4 of their cards for new cards in the deck or stand pat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system will define "stand pat" as exchanging 0 cards and keeping the original hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After all players have had the chance to exchange cards, another betting round is played</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round::determine_round()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once the 2nd betting round completes and the pot is satisfied, all of the players' cards are revealed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer::revealHand()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dealer will then determine which player has the highest valued hand and declare them the winner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer::gameResult()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If two players have the same value for their hand, the dealer should determine which player has the highest card and declare them the winner</t>
   </si>
   <si>
     <t xml:space="preserve">The "lone high card" hand is defined as all singles </t>
   </si>
   <si>
-    <t>Hand::find_high_card()</t>
-  </si>
-  <si>
-    <t>The "one pair" hand is defined as having 2 cards with the same number of face value</t>
-  </si>
-  <si>
-    <t>Hand::calc_value()</t>
-  </si>
-  <si>
-    <t>The "two pairs" hand is defined as having 2 sets 2 cards of the same number or face value</t>
-  </si>
-  <si>
-    <t>The "3 of a kind" hand is defined as having 3 cards with the same number or face value</t>
+    <t xml:space="preserve">Hand::find_high_card()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The "one pair" hand is defined as having 2 cards with the same number of face value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand::calc_value()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The "two pairs" hand is defined as having 2 sets 2 cards of the same number or face value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The "3 of a kind" hand is defined as having 3 cards with the same number or face value</t>
   </si>
   <si>
     <t xml:space="preserve">A "straight" hand is defined as having all 5 cards in numerical order </t>
   </si>
   <si>
-    <t>A "flush" hand is defined as having 5 cards with the same suit</t>
-  </si>
-  <si>
-    <t>A "full house" hand is defined as having a pair and a 3 of a kind</t>
-  </si>
-  <si>
-    <t>A "4 of a kind" hand is defined as having 4 cards with the same number or face value</t>
-  </si>
-  <si>
-    <t>A "straight flush" is defined as having a straight and a flush</t>
-  </si>
-  <si>
-    <t>A "royal flush" hand is defined as having a flush consisting of only face value cards and a 10 card</t>
-  </si>
-  <si>
-    <t>The system will end the program after one game is played through</t>
-  </si>
-  <si>
-    <t>group decision</t>
+    <t xml:space="preserve">A "flush" hand is defined as having 5 cards with the same suit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A "full house" hand is defined as having a pair and a 3 of a kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A "4 of a kind" hand is defined as having 4 cards with the same number or face value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A "straight flush" is defined as having a straight and a flush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A "royal flush" hand is defined as having a flush consisting of only face value cards and a 10 card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system will end the program after one game is played through</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainwin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -307,264 +350,105 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="27.71"/>
-    <col customWidth="1" min="4" max="4" width="127.14"/>
-    <col customWidth="1" min="5" max="5" width="20.14"/>
-    <col customWidth="1" min="6" max="6" width="15.86"/>
-    <col customWidth="1" min="7" max="7" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="127.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,9 +474,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -607,9 +491,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -627,9 +511,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -644,9 +528,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -661,9 +545,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -678,9 +562,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>6.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -695,9 +579,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>7.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -712,9 +596,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>8.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -732,9 +616,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>9.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -752,9 +636,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>10.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -772,9 +656,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>11.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -789,12 +673,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>12.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -805,13 +689,11 @@
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>13.0</v>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -820,15 +702,15 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>14.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
@@ -837,55 +719,55 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="2" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>17.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
@@ -894,18 +776,18 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>18.0</v>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
@@ -914,18 +796,18 @@
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>19.0</v>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
@@ -934,18 +816,18 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>20.0</v>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -954,18 +836,18 @@
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>21.0</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
@@ -974,18 +856,18 @@
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>22.0</v>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
@@ -997,15 +879,15 @@
         <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>23.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
@@ -1017,15 +899,15 @@
         <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>24.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>20</v>
@@ -1037,15 +919,15 @@
         <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>25.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
@@ -1057,12 +939,12 @@
         <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>26.0</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
@@ -1077,9 +959,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>27.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
@@ -1094,9 +976,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2">
-        <v>28.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>20</v>
@@ -1108,15 +990,15 @@
         <v>56</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <v>29.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>20</v>
@@ -1128,15 +1010,15 @@
         <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <v>30.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>20</v>
@@ -1154,9 +1036,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2">
-        <v>31.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>20</v>
@@ -1174,9 +1056,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>32.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>20</v>
@@ -1194,9 +1076,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2">
-        <v>33.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>20</v>
@@ -1214,9 +1096,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2">
-        <v>34.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>20</v>
@@ -1234,9 +1116,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2">
-        <v>35.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>20</v>
@@ -1248,15 +1130,15 @@
         <v>64</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2">
-        <v>36.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>20</v>
@@ -1274,9 +1156,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2">
-        <v>37.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>20</v>
@@ -1288,15 +1170,15 @@
         <v>66</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2">
-        <v>38.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>20</v>
@@ -1308,15 +1190,15 @@
         <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2">
-        <v>39.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>20</v>
@@ -1328,15 +1210,15 @@
         <v>70</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2">
-        <v>40.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>20</v>
@@ -1354,9 +1236,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2">
-        <v>41.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>20</v>
@@ -1368,15 +1250,15 @@
         <v>73</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2">
-        <v>42.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>20</v>
@@ -1388,15 +1270,15 @@
         <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2">
-        <v>43.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>20</v>
@@ -1408,15 +1290,15 @@
         <v>77</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2">
-        <v>44.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>20</v>
@@ -1428,15 +1310,15 @@
         <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2">
-        <v>45.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>20</v>
@@ -1448,15 +1330,15 @@
         <v>79</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2">
-        <v>46.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>20</v>
@@ -1468,15 +1350,15 @@
         <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2">
-        <v>47.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>20</v>
@@ -1488,15 +1370,15 @@
         <v>81</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2">
-        <v>48.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>20</v>
@@ -1508,15 +1390,15 @@
         <v>82</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2">
-        <v>49.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>20</v>
@@ -1528,15 +1410,15 @@
         <v>83</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2">
-        <v>50.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>20</v>
@@ -1548,15 +1430,15 @@
         <v>84</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2">
-        <v>51.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>20</v>
@@ -1571,13 +1453,16 @@
         <v>86</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="D55" s="5"/>
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -161,9 +161,6 @@
     <t>For the first round, each player should ante 1 at a time from left to right</t>
   </si>
   <si>
-    <t>Mainwin::on_ante_click()</t>
-  </si>
-  <si>
     <t>The ante shall be set to $1 at the beginning of the game</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>Stack::add_chips()</t>
+  </si>
+  <si>
+    <t>Mainwin::on_ante_click()/Player::move_j()</t>
   </si>
 </sst>
 </file>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1056,7 @@
         <v>33</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1119,7 +1119,7 @@
         <v>33</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1133,14 +1133,14 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1154,14 +1154,14 @@
         <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1175,14 +1175,14 @@
         <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3" t="s">
@@ -1215,11 +1215,11 @@
         <v>21</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1234,11 +1234,11 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1253,14 +1253,14 @@
         <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1274,14 +1274,14 @@
         <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1295,14 +1295,14 @@
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1316,14 +1316,14 @@
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1337,14 +1337,14 @@
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1358,14 +1358,14 @@
         <v>9</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1379,14 +1379,14 @@
         <v>9</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1400,14 +1400,14 @@
         <v>21</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1421,14 +1421,14 @@
         <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1442,14 +1442,14 @@
         <v>21</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1463,14 +1463,14 @@
         <v>21</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1484,14 +1484,14 @@
         <v>29</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1505,14 +1505,14 @@
         <v>29</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1526,14 +1526,14 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1547,14 +1547,14 @@
         <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1568,14 +1568,14 @@
         <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1589,14 +1589,14 @@
         <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1610,14 +1610,14 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1631,14 +1631,14 @@
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1652,14 +1652,14 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1673,14 +1673,14 @@
         <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1694,14 +1694,14 @@
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1715,14 +1715,14 @@
         <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1736,14 +1736,14 @@
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1757,13 +1757,13 @@
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -119,9 +119,6 @@
     <t>All decisions about winning, losing, and game play are made by the dealer application</t>
   </si>
   <si>
-    <t>Most of the error checking should be done in th dealer application. The player applicaiton should contain very limited error checking</t>
-  </si>
-  <si>
     <t>The system shall generate a deck of cards that consists of 52 cards</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Deck::Deck</t>
   </si>
   <si>
-    <t>Each card shall be assigned a suit (hearts, clubs, spades, or diamonds) and either a numerical value from 2 to 10 or a face value (J,Q,K,A)</t>
-  </si>
-  <si>
     <t>Card::_suit/_num</t>
   </si>
   <si>
@@ -294,6 +288,12 @@
   </si>
   <si>
     <t>Mainwin::on_ante_click()/Player::move_j()</t>
+  </si>
+  <si>
+    <t>Most of the error checking should be done in the dealer application. The player applicaiton should contain very limited error checking</t>
+  </si>
+  <si>
+    <t>Each card shall be assigned a suit (hearts, clubs, spades, or diamonds) and either a numerical value from 1 to 13 or a face value (J,Q,K,A)</t>
   </si>
 </sst>
 </file>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
@@ -967,14 +967,14 @@
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -988,14 +988,14 @@
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1009,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
@@ -1028,14 +1028,14 @@
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1049,14 +1049,14 @@
         <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1070,14 +1070,14 @@
         <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1091,14 +1091,14 @@
         <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1112,14 +1112,14 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1133,14 +1133,14 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1154,14 +1154,14 @@
         <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1175,14 +1175,14 @@
         <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1196,11 +1196,11 @@
         <v>29</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1215,11 +1215,11 @@
         <v>21</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1234,11 +1234,11 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1253,14 +1253,14 @@
         <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1274,14 +1274,14 @@
         <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1295,14 +1295,14 @@
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1316,14 +1316,14 @@
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1337,14 +1337,14 @@
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1358,14 +1358,14 @@
         <v>9</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1379,14 +1379,14 @@
         <v>9</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1400,14 +1400,14 @@
         <v>21</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1421,14 +1421,14 @@
         <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1442,14 +1442,14 @@
         <v>21</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1463,14 +1463,14 @@
         <v>21</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1484,14 +1484,14 @@
         <v>29</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1505,14 +1505,14 @@
         <v>29</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1526,14 +1526,14 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1547,14 +1547,14 @@
         <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1568,14 +1568,14 @@
         <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1589,14 +1589,14 @@
         <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1610,14 +1610,14 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1631,14 +1631,14 @@
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1652,14 +1652,14 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1673,14 +1673,14 @@
         <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1694,14 +1694,14 @@
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1715,14 +1715,14 @@
         <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1736,34 +1736,35 @@
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>87</v>
+      <c r="B53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="88">
   <si>
     <t>REQ ID</t>
   </si>
@@ -182,9 +182,6 @@
     <t>The system shall allow players to look at their own 5 cards, but not any others</t>
   </si>
   <si>
-    <t>After each player recieves their cards, a "betting round" should begin where they should choose to either check, bet, raise call, or fold</t>
-  </si>
-  <si>
     <t>Player::move_j()</t>
   </si>
   <si>
@@ -194,27 +191,9 @@
     <t>The system will define "check" as a player retaining their current hand and making no bet</t>
   </si>
   <si>
-    <t>The system will define "bet" as the first wager set at the table during the current round</t>
-  </si>
-  <si>
-    <t>The system will define "raise" as betting over the current bet amount. Every other player must match this new amount if they want to continue</t>
-  </si>
-  <si>
-    <t>The system will define "call" as matching the current bet amount</t>
-  </si>
-  <si>
     <t>The system will define "fold" as discarding all cards and forfeiting the game</t>
   </si>
   <si>
-    <t>After the betting round completes, players shall be given the option to exhange 1-4 of their cards for new cards in the deck or stand pat</t>
-  </si>
-  <si>
-    <t>The system will define "stand pat" as exchanging 0 cards and keeping the original hand</t>
-  </si>
-  <si>
-    <t>After all players have had the chance to exchange cards, another betting round is played</t>
-  </si>
-  <si>
     <t>Round::determine_round()</t>
   </si>
   <si>
@@ -294,6 +273,21 @@
   </si>
   <si>
     <t>Each card shall be assigned a suit (hearts, clubs, spades, or diamonds) and either a numerical value from 1 to 13 or a face value (J,Q,K,A)</t>
+  </si>
+  <si>
+    <t>After each player recieves their cards, a "betting round" should begin where they should choose to either fold, check, or bet</t>
+  </si>
+  <si>
+    <t>The system will define "stand" as exchanging 0 cards and keeping the original hand</t>
+  </si>
+  <si>
+    <t>The system will define "bet" as a wager set at the table during the current round</t>
+  </si>
+  <si>
+    <t>After the betting round completes, players shall be given the option to exhange 1-4 of their cards for new cards in the deck or stand</t>
+  </si>
+  <si>
+    <t>After all players have had the chance to exchange cards or stand, another betting round is played</t>
   </si>
 </sst>
 </file>
@@ -660,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -948,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
@@ -988,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
@@ -1056,7 +1050,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1119,7 +1113,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1253,14 +1247,14 @@
         <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1274,14 +1268,14 @@
         <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1295,14 +1289,14 @@
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1316,14 +1310,14 @@
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1337,14 +1331,14 @@
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1355,17 +1349,17 @@
         <v>20</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1379,14 +1373,14 @@
         <v>9</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1400,14 +1394,14 @@
         <v>21</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>53</v>
+      <c r="G36" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1418,17 +1412,17 @@
         <v>20</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1439,17 +1433,17 @@
         <v>20</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1460,17 +1454,17 @@
         <v>20</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1481,17 +1475,17 @@
         <v>20</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>67</v>
+      <c r="G40" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1502,17 +1496,17 @@
         <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1526,14 +1520,14 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1547,14 +1541,14 @@
         <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1568,14 +1562,14 @@
         <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1589,14 +1583,14 @@
         <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1610,14 +1604,14 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1631,14 +1625,14 @@
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1652,14 +1646,14 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1673,14 +1667,14 @@
         <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -1694,78 +1688,54 @@
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>72</v>
+      <c r="B51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
